--- a/Config/Excel/RandomBonus.xlsx
+++ b/Config/Excel/RandomBonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25A1F9C-4715-4670-96FE-65C019F12439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A573FF2-8E13-4FE9-857F-4D24D5DE7E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="6015" windowWidth="21600" windowHeight="11385" xr2:uid="{B555AC32-7F89-4FE5-8A4E-977A846FD267}"/>
+    <workbookView xWindow="8685" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{B555AC32-7F89-4FE5-8A4E-977A846FD267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -543,8 +543,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Config/Excel/RandomBonus.xlsx
+++ b/Config/Excel/RandomBonus.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A573FF2-8E13-4FE9-857F-4D24D5DE7E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81CAFC3-CF44-495A-9579-C5BB80BE5DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{B555AC32-7F89-4FE5-8A4E-977A846FD267}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B555AC32-7F89-4FE5-8A4E-977A846FD267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +66,85 @@
   </si>
   <si>
     <t>Count03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pond01～03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Count01～03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムボーナスの設定ファイル（宝ボックスなど）</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムID（持ち物に宝ボックスなどを追加する場合利用）</t>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーナスリスト表（RandomBonusPond設定ファイルのID）</t>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーナスをもらう回数（例えば、同じボーナスリストで３回もらいたい場合、３を設定）</t>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -72,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +168,60 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -111,8 +230,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1DF06F-177D-45D1-B223-A658C48623F2}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -548,4 +673,69 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEF9D0B-5E79-4A25-802A-3EF87ECF9946}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/RandomBonus.xlsx
+++ b/Config/Excel/RandomBonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81CAFC3-CF44-495A-9579-C5BB80BE5DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE92CF21-F94A-4C99-BFD3-C14A0451D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B555AC32-7F89-4FE5-8A4E-977A846FD267}"/>
+    <workbookView xWindow="648" yWindow="468" windowWidth="17280" windowHeight="8964" xr2:uid="{B555AC32-7F89-4FE5-8A4E-977A846FD267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -573,22 +571,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1DF06F-177D-45D1-B223-A658C48623F2}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,55 +612,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>22000</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>22100</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4">
+        <v>22200</v>
+      </c>
+      <c r="D4">
         <v>5</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -679,56 +659,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEF9D0B-5E79-4A25-802A-3EF87ECF9946}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>

--- a/Config/Excel/RandomBonus.xlsx
+++ b/Config/Excel/RandomBonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE92CF21-F94A-4C99-BFD3-C14A0451D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233AEBB5-4042-4370-8295-2C612DB8B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="648" yWindow="468" windowWidth="17280" windowHeight="8964" xr2:uid="{B555AC32-7F89-4FE5-8A4E-977A846FD267}"/>
+    <workbookView xWindow="4530" yWindow="2685" windowWidth="21690" windowHeight="12525" xr2:uid="{B555AC32-7F89-4FE5-8A4E-977A846FD267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,21 +572,21 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -623,7 +623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -634,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -663,52 +663,52 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
